--- a/parameter.xlsx
+++ b/parameter.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeoy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeoy\OneDrive\Desktop\BBDrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13422D07-D8ED-441D-A814-47BCC61F3993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144491B-51BA-49C2-9211-6B989C8C9816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372" xr2:uid="{F6561CA5-0C56-49F4-BB53-DA748E3E0E83}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="24">
   <si>
     <t>Variable Name</t>
   </si>
@@ -89,14 +90,32 @@
     <t>Constants</t>
   </si>
   <si>
-    <t>g/cm^3</t>
+    <t>Tension_T</t>
+  </si>
+  <si>
+    <t>RimForce</t>
+  </si>
+  <si>
+    <t>N/m</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>kN/m</t>
+  </si>
+  <si>
+    <t>kN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,13 +148,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -305,7 +326,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -329,9 +350,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -355,7 +376,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -390,7 +411,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -408,7 +429,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -433,7 +454,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -473,7 +494,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -525,10 +546,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.2</v>
+        <v>1400</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -571,4 +592,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.0703125" customWidth="true"/>
+    <col min="2" max="2" width="9.92578125" customWidth="true"/>
+    <col min="3" max="3" width="5.78515625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0">
+        <v>887.891240031866</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.4">
+      <c r="A2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0">
+        <v>17004.13727052465</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/parameter.xlsx
+++ b/parameter.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeoy\OneDrive\Desktop\BBDrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeoy0628\Desktop\BBDrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144491B-51BA-49C2-9211-6B989C8C9816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF6AAC1-415C-4545-A25D-387EF28B9067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" r:id="rId2"/>
+    <sheet name="mats" sheetId="3" r:id="rId2"/>
+    <sheet name="Results" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Variable Name</t>
   </si>
@@ -63,59 +64,101 @@
     <t>frequency</t>
   </si>
   <si>
-    <t>membrane_density</t>
+    <t>Amn</t>
+  </si>
+  <si>
+    <t>Fundamental bessel mode root</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>membrane_thickness</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Thickness of membrane</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>Tension_T</t>
+  </si>
+  <si>
+    <t>RimForce</t>
+  </si>
+  <si>
+    <t>kN/m</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>membrane_type</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>FoS</t>
+  </si>
+  <si>
+    <t>Density (kg/m³)</t>
+  </si>
+  <si>
+    <t>Tensile Strength (MPa)</t>
+  </si>
+  <si>
+    <t>Young’s Modulus (GPa)</t>
+  </si>
+  <si>
+    <t>Damping</t>
+  </si>
+  <si>
+    <t>Creep</t>
+  </si>
+  <si>
+    <t>Animal Skin</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Mylar (PET)</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Kevlar</t>
+  </si>
+  <si>
+    <t>Very Low</t>
   </si>
   <si>
     <t>PVC</t>
   </si>
   <si>
-    <t>Amn</t>
-  </si>
-  <si>
-    <t>Fundamental bessel mode root</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>membrane_thickness</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Thickness of membrane</t>
-  </si>
-  <si>
-    <t>Constants</t>
-  </si>
-  <si>
-    <t>Tension_T</t>
-  </si>
-  <si>
-    <t>RimForce</t>
-  </si>
-  <si>
-    <t>N/m</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>kg/m^3</t>
-  </si>
-  <si>
-    <t>kN/m</t>
-  </si>
-  <si>
-    <t>kN</t>
+    <t>Fiberglass Membrane</t>
+  </si>
+  <si>
+    <t>30–50</t>
+  </si>
+  <si>
+    <t>1: PVC,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -148,15 +191,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -326,7 +376,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -350,9 +400,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -376,7 +426,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -411,7 +461,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -429,7 +479,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -454,7 +504,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -494,18 +544,18 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.23046875" customWidth="1"/>
-    <col min="2" max="2" width="19.84375" customWidth="1"/>
-    <col min="3" max="3" width="21.765625" customWidth="1"/>
-    <col min="4" max="4" width="43.4609375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,18 +569,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -541,51 +591,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>1400</v>
-      </c>
-      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2.4047999999999998</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -595,38 +650,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186072A-F6A6-409E-89C8-78D59438B4CC}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1440</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C3" s="3">
+        <v>150</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1100</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1380</v>
+      </c>
+      <c r="C5" s="3">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.0703125" customWidth="true"/>
-    <col min="2" max="2" width="9.92578125" customWidth="true"/>
-    <col min="3" max="3" width="5.78515625" customWidth="true"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>2.2831489029390841</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0">
-        <v>887.891240031866</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.4">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2.1862462204960269</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="0">
-        <v>17004.13727052465</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
